--- a/activity-bart-chart.xlsx
+++ b/activity-bart-chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TikTzuki\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositories\override-project-document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC2B0706-FCFA-48CE-849F-DF4112111503}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C84A0C3-A5BA-4F34-B259-E52DE3437A37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="PeriodInPlan">'Project Planner'!A$4=MEDIAN('Project Planner'!A$4,'Project Planner'!$C1,'Project Planner'!$C1+'Project Planner'!$D1-1)</definedName>
     <definedName name="Plan">PeriodInPlan*('Project Planner'!$C1&gt;0)</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Project Planner'!$3:$4</definedName>
-    <definedName name="TitleRegion..BO60">'Project Planner'!$B$3:$B$4</definedName>
+    <definedName name="TitleRegion..BO60">'Project Planner'!$A$3:$A$4</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
   <si>
     <t>Project Planner</t>
   </si>
@@ -299,13 +299,46 @@
   <si>
     <t>Thống kê lịch sử mua hàng của khách hàng local</t>
   </si>
+  <si>
+    <t>Assignee</t>
+  </si>
+  <si>
+    <t>Trọng</t>
+  </si>
+  <si>
+    <t>Lợi</t>
+  </si>
+  <si>
+    <t>Ngọc Huyền</t>
+  </si>
+  <si>
+    <t>Huy</t>
+  </si>
+  <si>
+    <t>C.Huyền</t>
+  </si>
+  <si>
+    <t>Minh</t>
+  </si>
+  <si>
+    <t>Hồng</t>
+  </si>
+  <si>
+    <t>Hương</t>
+  </si>
+  <si>
+    <t>N.Huyền</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -606,7 +639,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -664,6 +697,24 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="11">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="3" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -712,23 +763,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="2" xfId="3" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -752,7 +791,7 @@
     <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="83">
+  <dxfs count="41">
     <dxf>
       <fill>
         <patternFill>
@@ -803,8 +842,8 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -818,7 +857,120 @@
       <fill>
         <patternFill patternType="lightUp">
           <fgColor theme="7"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
       <border>
@@ -931,727 +1083,7 @@
       <fill>
         <patternFill patternType="lightUp">
           <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="7"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
       <border>
@@ -1882,9 +1314,22 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="lightUp">
           <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
       <border>
@@ -2176,40 +1621,42 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:EL52"/>
+  <dimension ref="A1:EL52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="48" zoomScaleNormal="48" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="68.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="68.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="2" customWidth="1"/>
     <col min="3" max="6" width="11.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.625" style="3" customWidth="1"/>
     <col min="8" max="27" width="6.625" style="1" customWidth="1"/>
     <col min="28" max="142" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:142" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="B1" s="11" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:142" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="2:142" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="1:142" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
@@ -2217,66 +1664,69 @@
         <v>1</v>
       </c>
       <c r="J2" s="13"/>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="29"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="35"/>
       <c r="P2" s="14"/>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="29"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="35"/>
       <c r="U2" s="15"/>
-      <c r="V2" s="19" t="s">
+      <c r="V2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="31"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="37"/>
       <c r="Z2" s="16"/>
-      <c r="AA2" s="32" t="s">
+      <c r="AA2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="34"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="40"/>
       <c r="AH2" s="17"/>
-      <c r="AI2" s="19" t="s">
+      <c r="AI2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="20"/>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
-    </row>
-    <row r="3" spans="2:142" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+    </row>
+    <row r="3" spans="1:142" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="32" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="18" t="s">
@@ -2303,933 +1753,1013 @@
       <c r="AA3" s="8"/>
       <c r="EL3"/>
     </row>
-    <row r="4" spans="2:142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="23"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="35">
+    <row r="4" spans="1:142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="19">
         <v>44099</v>
       </c>
-      <c r="I4" s="35">
+      <c r="I4" s="19">
         <v>44100</v>
       </c>
-      <c r="J4" s="35">
+      <c r="J4" s="19">
         <v>44101</v>
       </c>
-      <c r="K4" s="35">
+      <c r="K4" s="19">
         <v>44102</v>
       </c>
-      <c r="L4" s="35">
+      <c r="L4" s="19">
         <v>44103</v>
       </c>
-      <c r="M4" s="35">
+      <c r="M4" s="19">
         <v>44104</v>
       </c>
-      <c r="N4" s="35">
+      <c r="N4" s="19">
         <v>44105</v>
       </c>
-      <c r="O4" s="35">
+      <c r="O4" s="19">
         <v>44106</v>
       </c>
-      <c r="P4" s="35">
-        <f t="shared" ref="J4:BU4" si="0">O4+1</f>
+      <c r="P4" s="19">
+        <f t="shared" ref="P4:BU4" si="0">O4+1</f>
         <v>44107</v>
       </c>
-      <c r="Q4" s="35">
+      <c r="Q4" s="19">
         <f t="shared" si="0"/>
         <v>44108</v>
       </c>
-      <c r="R4" s="35">
+      <c r="R4" s="19">
         <f t="shared" si="0"/>
         <v>44109</v>
       </c>
-      <c r="S4" s="35">
+      <c r="S4" s="19">
         <f t="shared" si="0"/>
         <v>44110</v>
       </c>
-      <c r="T4" s="35">
+      <c r="T4" s="19">
         <f t="shared" si="0"/>
         <v>44111</v>
       </c>
-      <c r="U4" s="35">
+      <c r="U4" s="19">
         <f t="shared" si="0"/>
         <v>44112</v>
       </c>
-      <c r="V4" s="35">
+      <c r="V4" s="19">
         <f t="shared" si="0"/>
         <v>44113</v>
       </c>
-      <c r="W4" s="35">
+      <c r="W4" s="19">
         <f t="shared" si="0"/>
         <v>44114</v>
       </c>
-      <c r="X4" s="35">
+      <c r="X4" s="19">
         <f t="shared" si="0"/>
         <v>44115</v>
       </c>
-      <c r="Y4" s="35">
+      <c r="Y4" s="19">
         <f t="shared" si="0"/>
         <v>44116</v>
       </c>
-      <c r="Z4" s="35">
+      <c r="Z4" s="19">
         <f t="shared" si="0"/>
         <v>44117</v>
       </c>
-      <c r="AA4" s="35">
+      <c r="AA4" s="19">
         <f t="shared" si="0"/>
         <v>44118</v>
       </c>
-      <c r="AB4" s="35">
+      <c r="AB4" s="19">
         <f t="shared" si="0"/>
         <v>44119</v>
       </c>
-      <c r="AC4" s="35">
+      <c r="AC4" s="19">
         <f t="shared" si="0"/>
         <v>44120</v>
       </c>
-      <c r="AD4" s="35">
+      <c r="AD4" s="19">
         <f t="shared" si="0"/>
         <v>44121</v>
       </c>
-      <c r="AE4" s="35">
+      <c r="AE4" s="19">
         <f t="shared" si="0"/>
         <v>44122</v>
       </c>
-      <c r="AF4" s="35">
+      <c r="AF4" s="19">
         <f t="shared" si="0"/>
         <v>44123</v>
       </c>
-      <c r="AG4" s="35">
+      <c r="AG4" s="19">
         <f t="shared" si="0"/>
         <v>44124</v>
       </c>
-      <c r="AH4" s="35">
+      <c r="AH4" s="19">
         <f t="shared" si="0"/>
         <v>44125</v>
       </c>
-      <c r="AI4" s="35">
+      <c r="AI4" s="19">
         <f t="shared" si="0"/>
         <v>44126</v>
       </c>
-      <c r="AJ4" s="35">
+      <c r="AJ4" s="19">
         <f t="shared" si="0"/>
         <v>44127</v>
       </c>
-      <c r="AK4" s="35">
+      <c r="AK4" s="19">
         <f t="shared" si="0"/>
         <v>44128</v>
       </c>
-      <c r="AL4" s="35">
+      <c r="AL4" s="19">
         <f t="shared" si="0"/>
         <v>44129</v>
       </c>
-      <c r="AM4" s="35">
+      <c r="AM4" s="19">
         <f t="shared" si="0"/>
         <v>44130</v>
       </c>
-      <c r="AN4" s="35">
+      <c r="AN4" s="19">
         <f t="shared" si="0"/>
         <v>44131</v>
       </c>
-      <c r="AO4" s="35">
+      <c r="AO4" s="19">
         <f t="shared" si="0"/>
         <v>44132</v>
       </c>
-      <c r="AP4" s="35">
+      <c r="AP4" s="19">
         <f t="shared" si="0"/>
         <v>44133</v>
       </c>
-      <c r="AQ4" s="35">
+      <c r="AQ4" s="19">
         <f t="shared" si="0"/>
         <v>44134</v>
       </c>
-      <c r="AR4" s="35">
+      <c r="AR4" s="19">
         <f t="shared" si="0"/>
         <v>44135</v>
       </c>
-      <c r="AS4" s="35">
+      <c r="AS4" s="19">
         <f t="shared" si="0"/>
         <v>44136</v>
       </c>
-      <c r="AT4" s="35">
+      <c r="AT4" s="19">
         <f t="shared" si="0"/>
         <v>44137</v>
       </c>
-      <c r="AU4" s="35">
+      <c r="AU4" s="19">
         <f t="shared" si="0"/>
         <v>44138</v>
       </c>
-      <c r="AV4" s="35">
+      <c r="AV4" s="19">
         <f t="shared" si="0"/>
         <v>44139</v>
       </c>
-      <c r="AW4" s="35">
+      <c r="AW4" s="19">
         <f t="shared" si="0"/>
         <v>44140</v>
       </c>
-      <c r="AX4" s="35">
+      <c r="AX4" s="19">
         <f t="shared" si="0"/>
         <v>44141</v>
       </c>
-      <c r="AY4" s="35">
+      <c r="AY4" s="19">
         <f t="shared" si="0"/>
         <v>44142</v>
       </c>
-      <c r="AZ4" s="35">
+      <c r="AZ4" s="19">
         <f t="shared" si="0"/>
         <v>44143</v>
       </c>
-      <c r="BA4" s="35">
+      <c r="BA4" s="19">
         <f t="shared" si="0"/>
         <v>44144</v>
       </c>
-      <c r="BB4" s="35">
+      <c r="BB4" s="19">
         <f t="shared" si="0"/>
         <v>44145</v>
       </c>
-      <c r="BC4" s="35">
+      <c r="BC4" s="19">
         <f t="shared" si="0"/>
         <v>44146</v>
       </c>
-      <c r="BD4" s="35">
+      <c r="BD4" s="19">
         <f t="shared" si="0"/>
         <v>44147</v>
       </c>
-      <c r="BE4" s="35">
+      <c r="BE4" s="19">
         <f t="shared" si="0"/>
         <v>44148</v>
       </c>
-      <c r="BF4" s="35">
+      <c r="BF4" s="19">
         <f t="shared" si="0"/>
         <v>44149</v>
       </c>
-      <c r="BG4" s="35">
+      <c r="BG4" s="19">
         <f t="shared" si="0"/>
         <v>44150</v>
       </c>
-      <c r="BH4" s="35">
+      <c r="BH4" s="19">
         <f t="shared" si="0"/>
         <v>44151</v>
       </c>
-      <c r="BI4" s="35">
+      <c r="BI4" s="19">
         <f t="shared" si="0"/>
         <v>44152</v>
       </c>
-      <c r="BJ4" s="35">
+      <c r="BJ4" s="19">
         <f t="shared" si="0"/>
         <v>44153</v>
       </c>
-      <c r="BK4" s="35">
+      <c r="BK4" s="19">
         <f t="shared" si="0"/>
         <v>44154</v>
       </c>
-      <c r="BL4" s="35">
+      <c r="BL4" s="19">
         <f t="shared" si="0"/>
         <v>44155</v>
       </c>
-      <c r="BM4" s="35">
+      <c r="BM4" s="19">
         <f t="shared" si="0"/>
         <v>44156</v>
       </c>
-      <c r="BN4" s="35">
+      <c r="BN4" s="19">
         <f t="shared" si="0"/>
         <v>44157</v>
       </c>
-      <c r="BO4" s="35">
+      <c r="BO4" s="19">
         <f t="shared" si="0"/>
         <v>44158</v>
       </c>
-      <c r="BP4" s="35">
+      <c r="BP4" s="19">
         <f t="shared" si="0"/>
         <v>44159</v>
       </c>
-      <c r="BQ4" s="35">
+      <c r="BQ4" s="19">
         <f t="shared" si="0"/>
         <v>44160</v>
       </c>
-      <c r="BR4" s="35">
+      <c r="BR4" s="19">
         <f t="shared" si="0"/>
         <v>44161</v>
       </c>
-      <c r="BS4" s="35">
+      <c r="BS4" s="19">
         <f t="shared" si="0"/>
         <v>44162</v>
       </c>
-      <c r="BT4" s="35">
+      <c r="BT4" s="19">
         <f t="shared" si="0"/>
         <v>44163</v>
       </c>
-      <c r="BU4" s="35">
+      <c r="BU4" s="19">
         <f t="shared" si="0"/>
         <v>44164</v>
       </c>
-      <c r="BV4" s="35">
-        <f t="shared" ref="BV4:EG4" si="1">BU4+1</f>
+      <c r="BV4" s="19">
+        <f t="shared" ref="BV4:DA4" si="1">BU4+1</f>
         <v>44165</v>
       </c>
-      <c r="BW4" s="35">
+      <c r="BW4" s="19">
         <f t="shared" si="1"/>
         <v>44166</v>
       </c>
-      <c r="BX4" s="35">
+      <c r="BX4" s="19">
         <f t="shared" si="1"/>
         <v>44167</v>
       </c>
-      <c r="BY4" s="35">
+      <c r="BY4" s="19">
         <f t="shared" si="1"/>
         <v>44168</v>
       </c>
-      <c r="BZ4" s="35">
+      <c r="BZ4" s="19">
         <f t="shared" si="1"/>
         <v>44169</v>
       </c>
-      <c r="CA4" s="35">
+      <c r="CA4" s="19">
         <f t="shared" si="1"/>
         <v>44170</v>
       </c>
-      <c r="CB4" s="35">
+      <c r="CB4" s="19">
         <f t="shared" si="1"/>
         <v>44171</v>
       </c>
-      <c r="CC4" s="35">
+      <c r="CC4" s="19">
         <f t="shared" si="1"/>
         <v>44172</v>
       </c>
-      <c r="CD4" s="35">
+      <c r="CD4" s="19">
         <f t="shared" si="1"/>
         <v>44173</v>
       </c>
-      <c r="CE4" s="35">
+      <c r="CE4" s="19">
         <f t="shared" si="1"/>
         <v>44174</v>
       </c>
-      <c r="CF4" s="35">
+      <c r="CF4" s="19">
         <f t="shared" si="1"/>
         <v>44175</v>
       </c>
-      <c r="CG4" s="35">
+      <c r="CG4" s="19">
         <f t="shared" si="1"/>
         <v>44176</v>
       </c>
-      <c r="CH4" s="35">
+      <c r="CH4" s="19">
         <f t="shared" si="1"/>
         <v>44177</v>
       </c>
-      <c r="CI4" s="35">
+      <c r="CI4" s="19">
         <f t="shared" si="1"/>
         <v>44178</v>
       </c>
-      <c r="CJ4" s="35">
+      <c r="CJ4" s="19">
         <f t="shared" si="1"/>
         <v>44179</v>
       </c>
-      <c r="CK4" s="35">
+      <c r="CK4" s="19">
         <f t="shared" si="1"/>
         <v>44180</v>
       </c>
-      <c r="CL4" s="35">
+      <c r="CL4" s="19">
         <f t="shared" si="1"/>
         <v>44181</v>
       </c>
-      <c r="CM4" s="35">
+      <c r="CM4" s="19">
         <f t="shared" si="1"/>
         <v>44182</v>
       </c>
-      <c r="CN4" s="35">
+      <c r="CN4" s="19">
         <f t="shared" si="1"/>
         <v>44183</v>
       </c>
-      <c r="CO4" s="35">
+      <c r="CO4" s="19">
         <f t="shared" si="1"/>
         <v>44184</v>
       </c>
-      <c r="CP4" s="35">
+      <c r="CP4" s="19">
         <f t="shared" si="1"/>
         <v>44185</v>
       </c>
-      <c r="CQ4" s="35">
+      <c r="CQ4" s="19">
         <f t="shared" si="1"/>
         <v>44186</v>
       </c>
-      <c r="CR4" s="35">
+      <c r="CR4" s="19">
         <f t="shared" si="1"/>
         <v>44187</v>
       </c>
-      <c r="CS4" s="35">
+      <c r="CS4" s="19">
         <f t="shared" si="1"/>
         <v>44188</v>
       </c>
-      <c r="CT4" s="35">
+      <c r="CT4" s="19">
         <f t="shared" si="1"/>
         <v>44189</v>
       </c>
-      <c r="CU4" s="35">
+      <c r="CU4" s="19">
         <f t="shared" si="1"/>
         <v>44190</v>
       </c>
-      <c r="CV4" s="35">
+      <c r="CV4" s="19">
         <f t="shared" si="1"/>
         <v>44191</v>
       </c>
-      <c r="CW4" s="35">
+      <c r="CW4" s="19">
         <f t="shared" si="1"/>
         <v>44192</v>
       </c>
-      <c r="CX4" s="35">
+      <c r="CX4" s="19">
         <f t="shared" si="1"/>
         <v>44193</v>
       </c>
-      <c r="CY4" s="35">
+      <c r="CY4" s="19">
         <f t="shared" si="1"/>
         <v>44194</v>
       </c>
-      <c r="CZ4" s="35">
+      <c r="CZ4" s="19">
         <f t="shared" si="1"/>
         <v>44195</v>
       </c>
-      <c r="DA4" s="35">
+      <c r="DA4" s="19">
         <f t="shared" si="1"/>
         <v>44196</v>
       </c>
     </row>
-    <row r="5" spans="2:142" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="38" t="s">
+    <row r="5" spans="1:142" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="36">
+      <c r="B5" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D5" s="24">
+        <v>0</v>
+      </c>
+      <c r="E5" s="20">
         <v>44099</v>
       </c>
-      <c r="D5" s="40">
-        <v>0</v>
-      </c>
-      <c r="E5" s="36">
+      <c r="F5" s="5">
+        <v>7</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:142" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D6" s="24">
+        <v>0</v>
+      </c>
+      <c r="E6" s="20">
         <v>44099</v>
       </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:142" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="36">
+      <c r="F6" s="5">
+        <v>7</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:142" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D7" s="24">
+        <v>0</v>
+      </c>
+      <c r="E7" s="20">
         <v>44099</v>
       </c>
-      <c r="D6" s="40">
-        <v>0</v>
-      </c>
-      <c r="E6" s="36">
+      <c r="F7" s="5">
+        <v>7</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:142" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D8" s="24">
+        <v>0</v>
+      </c>
+      <c r="E8" s="20">
         <v>44099</v>
       </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:142" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="36">
-        <v>44099</v>
-      </c>
-      <c r="D7" s="40">
-        <v>0</v>
-      </c>
-      <c r="E7" s="36">
-        <v>44099</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:142" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="36">
-        <v>44099</v>
-      </c>
-      <c r="D8" s="40">
-        <v>0</v>
-      </c>
-      <c r="E8" s="36">
-        <v>44099</v>
-      </c>
       <c r="F8" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:142" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="38" t="s">
+    <row r="9" spans="1:142" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="36">
-        <v>44099</v>
-      </c>
-      <c r="D9" s="40">
-        <v>0</v>
-      </c>
-      <c r="E9" s="36">
+      <c r="B9" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D9" s="24">
+        <v>0</v>
+      </c>
+      <c r="E9" s="20">
         <v>44103</v>
       </c>
       <c r="F9" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:142" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="38" t="s">
+    <row r="10" spans="1:142" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="36">
-        <v>44099</v>
-      </c>
-      <c r="D10" s="40">
-        <v>0</v>
-      </c>
-      <c r="E10" s="36">
+      <c r="B10" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D10" s="24">
+        <v>0</v>
+      </c>
+      <c r="E10" s="20">
         <v>44104</v>
       </c>
       <c r="F10" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G10" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:142" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="38" t="s">
+    <row r="11" spans="1:142" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="36">
-        <v>44099</v>
-      </c>
-      <c r="D11" s="40">
-        <v>0</v>
-      </c>
-      <c r="E11" s="36">
+      <c r="B11" s="22"/>
+      <c r="C11" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D11" s="24">
+        <v>0</v>
+      </c>
+      <c r="E11" s="20">
         <v>44105</v>
       </c>
       <c r="F11" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:142" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="38" t="s">
+    <row r="12" spans="1:142" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="36">
-        <v>44099</v>
-      </c>
-      <c r="D12" s="40">
-        <v>0</v>
-      </c>
-      <c r="E12" s="36">
+      <c r="B12" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D12" s="24">
+        <v>0</v>
+      </c>
+      <c r="E12" s="20">
         <v>44106</v>
       </c>
       <c r="F12" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G12" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:142" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="38" t="s">
+    <row r="13" spans="1:142" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="36">
-        <v>44099</v>
-      </c>
-      <c r="D13" s="40">
-        <v>0</v>
-      </c>
-      <c r="E13" s="36">
+      <c r="B13" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D13" s="24">
+        <v>0</v>
+      </c>
+      <c r="E13" s="20">
         <v>44107</v>
       </c>
       <c r="F13" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:142" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="38" t="s">
+    <row r="14" spans="1:142" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="36">
-        <v>44099</v>
-      </c>
-      <c r="D14" s="40">
-        <v>0</v>
-      </c>
-      <c r="E14" s="36">
+      <c r="B14" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0</v>
+      </c>
+      <c r="E14" s="20">
         <v>44108</v>
       </c>
       <c r="F14" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:142" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="38" t="s">
+    <row r="15" spans="1:142" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="36">
-        <v>44099</v>
-      </c>
-      <c r="D15" s="40">
-        <v>0</v>
-      </c>
-      <c r="E15" s="36">
+      <c r="B15" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D15" s="24">
+        <v>0</v>
+      </c>
+      <c r="E15" s="20">
         <v>44109</v>
       </c>
       <c r="F15" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G15" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:142" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="38" t="s">
+    <row r="16" spans="1:142" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="36">
-        <v>44099</v>
-      </c>
-      <c r="D16" s="40">
-        <v>0</v>
-      </c>
-      <c r="E16" s="36">
+      <c r="B16" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D16" s="24">
+        <v>0</v>
+      </c>
+      <c r="E16" s="20">
         <v>44110</v>
       </c>
       <c r="F16" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G16" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="38" t="s">
+    <row r="17" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="36">
-        <v>44099</v>
-      </c>
-      <c r="D17" s="40">
-        <v>0</v>
-      </c>
-      <c r="E17" s="36">
-        <v>44111</v>
+      <c r="B17" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D17" s="24">
+        <v>0</v>
+      </c>
+      <c r="E17" s="20">
+        <v>44137</v>
       </c>
       <c r="F17" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G17" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="38" t="s">
+    <row r="18" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="36">
-        <v>44099</v>
-      </c>
-      <c r="D18" s="40">
-        <v>0</v>
-      </c>
-      <c r="E18" s="36">
-        <v>44112</v>
+      <c r="B18" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D18" s="24">
+        <v>0</v>
+      </c>
+      <c r="E18" s="20">
+        <v>44140</v>
       </c>
       <c r="F18" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G18" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="38" t="s">
+    <row r="19" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="36">
-        <v>44099</v>
-      </c>
-      <c r="D19" s="40">
-        <v>0</v>
-      </c>
-      <c r="E19" s="36">
-        <v>44113</v>
+      <c r="B19" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D19" s="24">
+        <v>0</v>
+      </c>
+      <c r="E19" s="20">
+        <v>44143</v>
       </c>
       <c r="F19" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G19" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="38" t="s">
+    <row r="20" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="36">
-        <v>44099</v>
-      </c>
-      <c r="D20" s="40">
-        <v>0</v>
-      </c>
-      <c r="E20" s="36">
-        <v>44114</v>
+      <c r="B20" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D20" s="24">
+        <v>0</v>
+      </c>
+      <c r="E20" s="20">
+        <v>44146</v>
       </c>
       <c r="F20" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G20" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="38" t="s">
+    <row r="21" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="36">
-        <v>44099</v>
-      </c>
-      <c r="D21" s="40">
-        <v>0</v>
-      </c>
-      <c r="E21" s="36">
-        <v>44115</v>
+      <c r="B21" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D21" s="24">
+        <v>0</v>
+      </c>
+      <c r="E21" s="20">
+        <v>44149</v>
       </c>
       <c r="F21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="38" t="s">
+    <row r="22" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="36">
-        <v>44099</v>
-      </c>
-      <c r="D22" s="40">
-        <v>0</v>
-      </c>
-      <c r="E22" s="36">
-        <v>44116</v>
+      <c r="B22" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D22" s="24">
+        <v>0</v>
+      </c>
+      <c r="E22" s="20">
+        <v>44137</v>
       </c>
       <c r="F22" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G22" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="38" t="s">
+    <row r="23" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="36">
-        <v>44099</v>
-      </c>
-      <c r="D23" s="40">
-        <v>0</v>
-      </c>
-      <c r="E23" s="36">
-        <v>44117</v>
+      <c r="B23" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D23" s="24">
+        <v>0</v>
+      </c>
+      <c r="E23" s="20">
+        <v>44140</v>
       </c>
       <c r="F23" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G23" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="38" t="s">
+    <row r="24" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="36">
-        <v>44099</v>
-      </c>
-      <c r="D24" s="40">
-        <v>0</v>
-      </c>
-      <c r="E24" s="36">
-        <v>44118</v>
+      <c r="B24" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D24" s="24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="20">
+        <v>44144</v>
       </c>
       <c r="F24" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G24" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="38" t="s">
+    <row r="25" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="36">
-        <v>44099</v>
-      </c>
-      <c r="D25" s="40">
-        <v>0</v>
-      </c>
-      <c r="E25" s="36">
-        <v>44119</v>
+      <c r="B25" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D25" s="24">
+        <v>0</v>
+      </c>
+      <c r="E25" s="20">
+        <v>44149</v>
       </c>
       <c r="F25" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="38" t="s">
+    <row r="26" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="36">
-        <v>44099</v>
-      </c>
-      <c r="D26" s="40">
-        <v>0</v>
-      </c>
-      <c r="E26" s="36">
-        <v>44120</v>
+      <c r="B26" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D26" s="24">
+        <v>0</v>
+      </c>
+      <c r="E26" s="20">
+        <v>44150</v>
       </c>
       <c r="F26" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G26" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="38" t="s">
+    <row r="27" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="36">
-        <v>44099</v>
-      </c>
-      <c r="D27" s="40">
-        <v>0</v>
-      </c>
-      <c r="E27" s="36">
-        <v>44121</v>
+      <c r="B27" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D27" s="24">
+        <v>0</v>
+      </c>
+      <c r="E27" s="20">
+        <v>44137</v>
       </c>
       <c r="F27" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G27" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="38" t="s">
+    <row r="28" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="36">
-        <v>44099</v>
-      </c>
-      <c r="D28" s="40">
-        <v>0</v>
-      </c>
-      <c r="E28" s="36">
-        <v>44122</v>
+      <c r="B28" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D28" s="24">
+        <v>0</v>
+      </c>
+      <c r="E28" s="20">
+        <v>44141</v>
       </c>
       <c r="F28" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G28" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="38" t="s">
+    <row r="29" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="36">
-        <v>44099</v>
-      </c>
-      <c r="D29" s="40">
-        <v>0</v>
-      </c>
-      <c r="E29" s="36">
-        <v>44123</v>
+      <c r="B29" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D29" s="24">
+        <v>0</v>
+      </c>
+      <c r="E29" s="20">
+        <v>44143</v>
       </c>
       <c r="F29" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G29" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="38" t="s">
+    <row r="30" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="36">
-        <v>44099</v>
-      </c>
-      <c r="D30" s="40">
-        <v>0</v>
-      </c>
-      <c r="E30" s="36">
-        <v>44124</v>
+      <c r="B30" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D30" s="24">
+        <v>0</v>
+      </c>
+      <c r="E30" s="20">
+        <v>44137</v>
       </c>
       <c r="F30" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G30" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="38" t="s">
+    <row r="31" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="36">
-        <v>44099</v>
-      </c>
-      <c r="D31" s="40">
-        <v>0</v>
-      </c>
-      <c r="E31" s="36">
-        <v>44125</v>
+      <c r="B31" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D31" s="24">
+        <v>0</v>
+      </c>
+      <c r="E31" s="20">
+        <v>44141</v>
       </c>
       <c r="F31" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G31" s="6">
         <v>0</v>
@@ -3271,21 +2801,24 @@
       <c r="BJ31" s="1"/>
       <c r="BK31" s="1"/>
     </row>
-    <row r="32" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="38" t="s">
+    <row r="32" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="36">
-        <v>44099</v>
-      </c>
-      <c r="D32" s="40">
-        <v>0</v>
-      </c>
-      <c r="E32" s="36">
-        <v>44126</v>
+      <c r="B32" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D32" s="24">
+        <v>0</v>
+      </c>
+      <c r="E32" s="20">
+        <v>44143</v>
       </c>
       <c r="F32" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G32" s="6">
         <v>0</v>
@@ -3327,21 +2860,24 @@
       <c r="BJ32" s="1"/>
       <c r="BK32" s="1"/>
     </row>
-    <row r="33" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="38" t="s">
+    <row r="33" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="36">
-        <v>44099</v>
-      </c>
-      <c r="D33" s="40">
-        <v>0</v>
-      </c>
-      <c r="E33" s="36">
-        <v>44127</v>
+      <c r="B33" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D33" s="24">
+        <v>0</v>
+      </c>
+      <c r="E33" s="20">
+        <v>44144</v>
       </c>
       <c r="F33" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="6">
         <v>0</v>
@@ -3383,21 +2919,24 @@
       <c r="BJ33" s="1"/>
       <c r="BK33" s="1"/>
     </row>
-    <row r="34" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="38" t="s">
+    <row r="34" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="36">
-        <v>44099</v>
-      </c>
-      <c r="D34" s="40">
-        <v>0</v>
-      </c>
-      <c r="E34" s="36">
-        <v>44128</v>
+      <c r="B34" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D34" s="24">
+        <v>0</v>
+      </c>
+      <c r="E34" s="20">
+        <v>44137</v>
       </c>
       <c r="F34" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G34" s="6">
         <v>0</v>
@@ -3439,21 +2978,24 @@
       <c r="BJ34" s="1"/>
       <c r="BK34" s="1"/>
     </row>
-    <row r="35" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="38" t="s">
+    <row r="35" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="36">
-        <v>44099</v>
-      </c>
-      <c r="D35" s="40">
-        <v>0</v>
-      </c>
-      <c r="E35" s="36">
-        <v>44129</v>
+      <c r="B35" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D35" s="24">
+        <v>0</v>
+      </c>
+      <c r="E35" s="20">
+        <v>44140</v>
       </c>
       <c r="F35" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G35" s="6">
         <v>0</v>
@@ -3495,21 +3037,24 @@
       <c r="BJ35" s="1"/>
       <c r="BK35" s="1"/>
     </row>
-    <row r="36" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="38" t="s">
+    <row r="36" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="36">
-        <v>44099</v>
-      </c>
-      <c r="D36" s="40">
-        <v>0</v>
-      </c>
-      <c r="E36" s="36">
-        <v>44130</v>
+      <c r="B36" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D36" s="24">
+        <v>0</v>
+      </c>
+      <c r="E36" s="20">
+        <v>44143</v>
       </c>
       <c r="F36" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" s="6">
         <v>0</v>
@@ -3551,21 +3096,24 @@
       <c r="BJ36" s="1"/>
       <c r="BK36" s="1"/>
     </row>
-    <row r="37" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="38" t="s">
+    <row r="37" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="36">
-        <v>44099</v>
-      </c>
-      <c r="D37" s="40">
-        <v>0</v>
-      </c>
-      <c r="E37" s="36">
-        <v>44131</v>
+      <c r="B37" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D37" s="24">
+        <v>0</v>
+      </c>
+      <c r="E37" s="20">
+        <v>44144</v>
       </c>
       <c r="F37" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G37" s="6">
         <v>0</v>
@@ -3607,21 +3155,24 @@
       <c r="BJ37" s="1"/>
       <c r="BK37" s="1"/>
     </row>
-    <row r="38" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="38" t="s">
+    <row r="38" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="36">
-        <v>44099</v>
-      </c>
-      <c r="D38" s="40">
-        <v>0</v>
-      </c>
-      <c r="E38" s="36">
-        <v>44132</v>
+      <c r="B38" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D38" s="24">
+        <v>0</v>
+      </c>
+      <c r="E38" s="20">
+        <v>44137</v>
       </c>
       <c r="F38" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G38" s="6">
         <v>0</v>
@@ -3663,21 +3214,24 @@
       <c r="BJ38" s="1"/>
       <c r="BK38" s="1"/>
     </row>
-    <row r="39" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="38" t="s">
+    <row r="39" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="36">
-        <v>44099</v>
-      </c>
-      <c r="D39" s="40">
-        <v>0</v>
-      </c>
-      <c r="E39" s="36">
-        <v>44133</v>
+      <c r="B39" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D39" s="24">
+        <v>0</v>
+      </c>
+      <c r="E39" s="20">
+        <v>44139</v>
       </c>
       <c r="F39" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G39" s="6">
         <v>0</v>
@@ -3719,21 +3273,24 @@
       <c r="BJ39" s="1"/>
       <c r="BK39" s="1"/>
     </row>
-    <row r="40" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="38" t="s">
+    <row r="40" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="36">
-        <v>44099</v>
-      </c>
-      <c r="D40" s="40">
-        <v>0</v>
-      </c>
-      <c r="E40" s="36">
-        <v>44134</v>
+      <c r="B40" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D40" s="24">
+        <v>0</v>
+      </c>
+      <c r="E40" s="20">
+        <v>44141</v>
       </c>
       <c r="F40" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G40" s="6">
         <v>0</v>
@@ -3775,21 +3332,24 @@
       <c r="BJ40" s="1"/>
       <c r="BK40" s="1"/>
     </row>
-    <row r="41" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="38" t="s">
+    <row r="41" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="36">
-        <v>44099</v>
-      </c>
-      <c r="D41" s="40">
-        <v>0</v>
-      </c>
-      <c r="E41" s="36">
-        <v>44135</v>
+      <c r="B41" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D41" s="24">
+        <v>0</v>
+      </c>
+      <c r="E41" s="20">
+        <v>44142</v>
       </c>
       <c r="F41" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" s="6">
         <v>0</v>
@@ -3831,21 +3391,24 @@
       <c r="BJ41" s="1"/>
       <c r="BK41" s="1"/>
     </row>
-    <row r="42" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="38" t="s">
+    <row r="42" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="36">
-        <v>44099</v>
-      </c>
-      <c r="D42" s="40">
-        <v>0</v>
-      </c>
-      <c r="E42" s="36">
-        <v>44136</v>
+      <c r="B42" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D42" s="24">
+        <v>0</v>
+      </c>
+      <c r="E42" s="20">
+        <v>44137</v>
       </c>
       <c r="F42" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G42" s="6">
         <v>0</v>
@@ -3887,21 +3450,24 @@
       <c r="BJ42" s="1"/>
       <c r="BK42" s="1"/>
     </row>
-    <row r="43" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="38" t="s">
+    <row r="43" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="36">
-        <v>44099</v>
-      </c>
-      <c r="D43" s="40">
-        <v>0</v>
-      </c>
-      <c r="E43" s="36">
-        <v>44137</v>
+      <c r="B43" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D43" s="24">
+        <v>0</v>
+      </c>
+      <c r="E43" s="20">
+        <v>44139</v>
       </c>
       <c r="F43" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G43" s="6">
         <v>0</v>
@@ -3943,21 +3509,24 @@
       <c r="BJ43" s="1"/>
       <c r="BK43" s="1"/>
     </row>
-    <row r="44" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="38" t="s">
+    <row r="44" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="36">
-        <v>44099</v>
-      </c>
-      <c r="D44" s="40">
-        <v>0</v>
-      </c>
-      <c r="E44" s="36">
-        <v>44138</v>
+      <c r="B44" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D44" s="24">
+        <v>0</v>
+      </c>
+      <c r="E44" s="20">
+        <v>44141</v>
       </c>
       <c r="F44" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G44" s="6">
         <v>0</v>
@@ -3999,21 +3568,24 @@
       <c r="BJ44" s="1"/>
       <c r="BK44" s="1"/>
     </row>
-    <row r="45" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="39" t="s">
+    <row r="45" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="36">
-        <v>44099</v>
-      </c>
-      <c r="D45" s="40">
-        <v>0</v>
-      </c>
-      <c r="E45" s="36">
-        <v>44139</v>
+      <c r="B45" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D45" s="24">
+        <v>0</v>
+      </c>
+      <c r="E45" s="20">
+        <v>44137</v>
       </c>
       <c r="F45" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G45" s="6">
         <v>0</v>
@@ -4055,21 +3627,24 @@
       <c r="BJ45" s="1"/>
       <c r="BK45" s="1"/>
     </row>
-    <row r="46" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="37" t="s">
+    <row r="46" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="36">
-        <v>44099</v>
-      </c>
-      <c r="D46" s="40">
-        <v>0</v>
-      </c>
-      <c r="E46" s="36">
+      <c r="B46" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D46" s="24">
+        <v>0</v>
+      </c>
+      <c r="E46" s="20">
         <v>44140</v>
       </c>
       <c r="F46" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G46" s="6">
         <v>0</v>
@@ -4111,21 +3686,24 @@
       <c r="BJ46" s="1"/>
       <c r="BK46" s="1"/>
     </row>
-    <row r="47" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="37" t="s">
+    <row r="47" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="36">
-        <v>44099</v>
-      </c>
-      <c r="D47" s="40">
-        <v>0</v>
-      </c>
-      <c r="E47" s="36">
-        <v>44141</v>
+      <c r="B47" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D47" s="24">
+        <v>0</v>
+      </c>
+      <c r="E47" s="20">
+        <v>44143</v>
       </c>
       <c r="F47" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G47" s="6">
         <v>0</v>
@@ -4167,21 +3745,24 @@
       <c r="BJ47" s="1"/>
       <c r="BK47" s="1"/>
     </row>
-    <row r="48" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="37" t="s">
+    <row r="48" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="36">
-        <v>44099</v>
-      </c>
-      <c r="D48" s="40">
-        <v>0</v>
-      </c>
-      <c r="E48" s="36">
-        <v>44142</v>
+      <c r="B48" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D48" s="24">
+        <v>0</v>
+      </c>
+      <c r="E48" s="20">
+        <v>44137</v>
       </c>
       <c r="F48" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G48" s="6">
         <v>0</v>
@@ -4223,21 +3804,24 @@
       <c r="BJ48" s="1"/>
       <c r="BK48" s="1"/>
     </row>
-    <row r="49" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="37" t="s">
+    <row r="49" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C49" s="36">
-        <v>44099</v>
-      </c>
-      <c r="D49" s="40">
-        <v>0</v>
-      </c>
-      <c r="E49" s="36">
-        <v>44143</v>
+      <c r="B49" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D49" s="24">
+        <v>0</v>
+      </c>
+      <c r="E49" s="20">
+        <v>44140</v>
       </c>
       <c r="F49" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G49" s="6">
         <v>0</v>
@@ -4279,21 +3863,24 @@
       <c r="BJ49" s="1"/>
       <c r="BK49" s="1"/>
     </row>
-    <row r="50" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="38" t="s">
+    <row r="50" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="36">
-        <v>44099</v>
-      </c>
-      <c r="D50" s="40">
-        <v>0</v>
-      </c>
-      <c r="E50" s="36">
-        <v>44144</v>
+      <c r="B50" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D50" s="24">
+        <v>0</v>
+      </c>
+      <c r="E50" s="20">
+        <v>44143</v>
       </c>
       <c r="F50" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G50" s="6">
         <v>0</v>
@@ -4335,21 +3922,24 @@
       <c r="BJ50" s="1"/>
       <c r="BK50" s="1"/>
     </row>
-    <row r="51" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="37" t="s">
+    <row r="51" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="36">
-        <v>44099</v>
-      </c>
-      <c r="D51" s="40">
-        <v>0</v>
-      </c>
-      <c r="E51" s="36">
-        <v>44145</v>
+      <c r="B51" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D51" s="24">
+        <v>0</v>
+      </c>
+      <c r="E51" s="20">
+        <v>44146</v>
       </c>
       <c r="F51" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G51" s="6">
         <v>0</v>
@@ -4391,21 +3981,24 @@
       <c r="BJ51" s="1"/>
       <c r="BK51" s="1"/>
     </row>
-    <row r="52" spans="2:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="37" t="s">
+    <row r="52" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C52" s="36">
-        <v>44099</v>
-      </c>
-      <c r="D52" s="40">
-        <v>0</v>
-      </c>
-      <c r="E52" s="36">
-        <v>44146</v>
+      <c r="B52" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="20">
+        <v>44098</v>
+      </c>
+      <c r="D52" s="24">
+        <v>0</v>
+      </c>
+      <c r="E52" s="20">
+        <v>44150</v>
       </c>
       <c r="F52" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G52" s="6">
         <v>0</v>
@@ -4448,10 +4041,10 @@
       <c r="BK52" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="AI2:AP2"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:A4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
@@ -4461,144 +4054,144 @@
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AA2:AG2"/>
+    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:BO30">
-    <cfRule type="expression" dxfId="82" priority="33">
+    <cfRule type="expression" dxfId="40" priority="33">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="35">
+    <cfRule type="expression" dxfId="39" priority="35">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="36">
+    <cfRule type="expression" dxfId="38" priority="36">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="37">
+    <cfRule type="expression" dxfId="37" priority="37">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="38">
+    <cfRule type="expression" dxfId="36" priority="38">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="39">
+    <cfRule type="expression" dxfId="35" priority="39">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="43">
+    <cfRule type="expression" dxfId="34" priority="43">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="44">
+    <cfRule type="expression" dxfId="33" priority="44">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:DA4">
-    <cfRule type="expression" dxfId="75" priority="40">
+    <cfRule type="expression" dxfId="32" priority="40">
       <formula>H$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP5:DA30">
-    <cfRule type="expression" dxfId="74" priority="25">
+    <cfRule type="expression" dxfId="31" priority="25">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="26">
+    <cfRule type="expression" dxfId="30" priority="26">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="27">
+    <cfRule type="expression" dxfId="29" priority="27">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="28">
+    <cfRule type="expression" dxfId="28" priority="28">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="29">
+    <cfRule type="expression" dxfId="27" priority="29">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="30">
+    <cfRule type="expression" dxfId="26" priority="30">
       <formula>BP$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="31">
+    <cfRule type="expression" dxfId="25" priority="31">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="32">
+    <cfRule type="expression" dxfId="24" priority="32">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:BK52">
-    <cfRule type="expression" dxfId="66" priority="17">
+    <cfRule type="expression" dxfId="23" priority="17">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="18">
+    <cfRule type="expression" dxfId="22" priority="18">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="19">
+    <cfRule type="expression" dxfId="21" priority="19">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="20">
+    <cfRule type="expression" dxfId="20" priority="20">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="21">
+    <cfRule type="expression" dxfId="19" priority="21">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="22">
+    <cfRule type="expression" dxfId="18" priority="22">
       <formula>I$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="23">
+    <cfRule type="expression" dxfId="17" priority="23">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="24">
+    <cfRule type="expression" dxfId="16" priority="24">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL31:DA52">
-    <cfRule type="expression" dxfId="58" priority="9">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="10">
+    <cfRule type="expression" dxfId="14" priority="10">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="11">
+    <cfRule type="expression" dxfId="13" priority="11">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="12">
+    <cfRule type="expression" dxfId="12" priority="12">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="13">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="14">
+    <cfRule type="expression" dxfId="10" priority="14">
       <formula>BL$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="15">
+    <cfRule type="expression" dxfId="9" priority="15">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="16">
+    <cfRule type="expression" dxfId="8" priority="16">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:H52">
-    <cfRule type="expression" dxfId="51" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="6">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="7">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="8">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="16">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+  <dataValidations count="15">
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="H2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
     </dataValidation>
@@ -4608,14 +4201,14 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="Z2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AH2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="H3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="B3:B4" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="A3:A4 B3" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C3:C4" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="D3:D4" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="E3:E4" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="F3:F4" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="G3:G4" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B1" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="B2:F2" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="A1:B1" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="A2:F2" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
